--- a/output/fit_clients/fit_round_214.xlsx
+++ b/output/fit_clients/fit_round_214.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1578135758.341232</v>
+        <v>1780071969.129548</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0723583828604366</v>
+        <v>0.07209665571124785</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04429241555364158</v>
+        <v>0.04500111742231462</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>789067818.0755615</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1824740656.842639</v>
+        <v>2145760106.286726</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1571901056363761</v>
+        <v>0.1515973862456009</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03420139607381661</v>
+        <v>0.03138582620934564</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>912370341.3191487</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3854359045.004876</v>
+        <v>4799191993.586407</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1530660484742327</v>
+        <v>0.1597007303431163</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03249885815393275</v>
+        <v>0.03268848959032519</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>77</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1927179526.34388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4017503444.376647</v>
+        <v>4084775214.581037</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09249946482164699</v>
+        <v>0.07816207423629683</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03339402093503883</v>
+        <v>0.05065380831636521</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2008751724.72959</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2665730845.553058</v>
+        <v>2573273395.833693</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1224563300366545</v>
+        <v>0.1360399062326245</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03452563501994098</v>
+        <v>0.04434553748123802</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>37</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1332865380.308609</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2742922872.605507</v>
+        <v>2088493144.052284</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06649917686314608</v>
+        <v>0.1012257635019783</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03179560484159116</v>
+        <v>0.03368386940248211</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>64</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1371461425.912885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2479937629.508963</v>
+        <v>3791881904.345274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1906345438038159</v>
+        <v>0.1731806650191096</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02595188919548773</v>
+        <v>0.03068632634937001</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>69</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1239968819.090396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1673045926.914562</v>
+        <v>1740283090.103367</v>
       </c>
       <c r="F9" t="n">
-        <v>0.145714753040768</v>
+        <v>0.1444159117186444</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03479271471242053</v>
+        <v>0.03002047543795813</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>836523035.4144601</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3580486149.828193</v>
+        <v>4994843023.48493</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1951740972064584</v>
+        <v>0.2039539686636724</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05403049154609776</v>
+        <v>0.03527010442127111</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>90</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1790243064.275918</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3688959238.090739</v>
+        <v>3310019312.796958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1663851756772922</v>
+        <v>0.1542300018468067</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05000657127035628</v>
+        <v>0.03449229543598493</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1844479610.020472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2426864877.922663</v>
+        <v>2818911802.598333</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1747512048716602</v>
+        <v>0.142250667230841</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04140409500892078</v>
+        <v>0.04039514447257811</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1213432404.452794</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4607687263.905386</v>
+        <v>3359679549.870502</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09197530147542449</v>
+        <v>0.09662873467438751</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02715222717888476</v>
+        <v>0.02139141540751965</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>72</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2303843656.003752</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2456541215.147826</v>
+        <v>3654277551.198286</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1339167322906906</v>
+        <v>0.1259152383374491</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0273086839153579</v>
+        <v>0.02779301609675609</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1228270681.334682</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1372801869.06214</v>
+        <v>1748470953.639593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0987377664116271</v>
+        <v>0.106685073384057</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04908065064402591</v>
+        <v>0.03950232178341954</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>686400991.17418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2230586585.682707</v>
+        <v>2406196048.032916</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09284239934795976</v>
+        <v>0.1084102476430314</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03692304181417457</v>
+        <v>0.04915572396184909</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>35</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1115293347.719416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3945405271.749256</v>
+        <v>3233972218.34854</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1193108071801367</v>
+        <v>0.1355210025499225</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04568080865957339</v>
+        <v>0.04677673445739661</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>62</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1972702673.178575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3088925844.122522</v>
+        <v>3817357742.412929</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1160712622219228</v>
+        <v>0.1707483928551148</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03209924412475129</v>
+        <v>0.02299625004278626</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>70</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1544462945.828213</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>924507401.1260312</v>
+        <v>1280540193.748145</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1712749564394349</v>
+        <v>0.1576651619074829</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0247072434598996</v>
+        <v>0.01917092505375523</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>462253711.4153925</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2387096449.821119</v>
+        <v>2549305597.111724</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1066650819068826</v>
+        <v>0.1352009264171533</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02943364474579628</v>
+        <v>0.02746776210159884</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1193548210.00934</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2537186345.078535</v>
+        <v>2058116056.145098</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07708265142901606</v>
+        <v>0.08898781510131601</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04121566308469374</v>
+        <v>0.0403985283269428</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1268593157.113424</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3133257842.717378</v>
+        <v>2450837414.969742</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1376026985592335</v>
+        <v>0.1234143322058948</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04311287403727505</v>
+        <v>0.04369557295758374</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>59</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1566628974.889268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1533864635.41454</v>
+        <v>1539984184.244246</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1410672621243953</v>
+        <v>0.1471360649055685</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0481021622211865</v>
+        <v>0.04757042839444566</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>766932297.9188294</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2941201608.914052</v>
+        <v>2797581604.479739</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09414112772593497</v>
+        <v>0.1462813175669536</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02308873225580198</v>
+        <v>0.03734670626100341</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>62</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1470600843.645497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1400488084.97737</v>
+        <v>1323710107.342816</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08623283692613549</v>
+        <v>0.09154081770451494</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02792993434479126</v>
+        <v>0.02766515953942821</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>700244014.3197979</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1046155193.538463</v>
+        <v>929574021.5934323</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1063842896643132</v>
+        <v>0.07949512435718793</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02708009128971051</v>
+        <v>0.02865724581308328</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>523077580.1380748</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4274025855.381628</v>
+        <v>3677260157.922778</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1185235705148446</v>
+        <v>0.09654808191162434</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02127593346110836</v>
+        <v>0.01840934578619028</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2137012924.200989</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2919542273.298976</v>
+        <v>2443361351.600802</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1175458295152794</v>
+        <v>0.0958673544571422</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03332524191889496</v>
+        <v>0.04165104443544867</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>69</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1459771140.897406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3828578726.427563</v>
+        <v>5339283354.259335</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1293648188020395</v>
+        <v>0.112443774863017</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04046866207691572</v>
+        <v>0.03039495017927118</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>94</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1914289391.970367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2003591765.918179</v>
+        <v>2300855737.06979</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09392429220983083</v>
+        <v>0.1243832019796258</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03179868088520452</v>
+        <v>0.02863262579395017</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1001795920.811777</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1300990257.812173</v>
+        <v>1252349681.771228</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0718963164182857</v>
+        <v>0.07989572948518021</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04732268264904711</v>
+        <v>0.04067612062495234</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>650495056.5883015</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1341102062.660435</v>
+        <v>1585489923.254693</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1158716743673624</v>
+        <v>0.07565474574491775</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0250424074511629</v>
+        <v>0.03083137358156169</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>670551066.7619393</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2501416244.623828</v>
+        <v>1977608726.959361</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1943567433695586</v>
+        <v>0.1974303223517393</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04900766274086137</v>
+        <v>0.05013748387851246</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1250708160.375751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1503209453.046839</v>
+        <v>1215309838.022227</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09009365636070474</v>
+        <v>0.1131611303577252</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02199392901898397</v>
+        <v>0.01787148418978883</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>751604681.8033476</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1117325651.086398</v>
+        <v>1209305535.996168</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1068974305323694</v>
+        <v>0.08106643587962345</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0281223800385694</v>
+        <v>0.0368820380187734</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>558662818.3895748</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2417404415.581293</v>
+        <v>2326594921.588426</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1666684425720193</v>
+        <v>0.11721980087</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0196873946503211</v>
+        <v>0.02611272920342207</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>55</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1208702236.365922</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2042990244.098265</v>
+        <v>2932861044.944705</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1109846855615585</v>
+        <v>0.1103785833893506</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03801817760052761</v>
+        <v>0.03142990924006248</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>56</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1021495155.212552</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2033984110.294577</v>
+        <v>1448734743.826662</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08157064551549206</v>
+        <v>0.1195757454639773</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0331518740960422</v>
+        <v>0.03536387553713454</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1016992028.956339</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1716334874.852784</v>
+        <v>1675717994.807793</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1213672040237975</v>
+        <v>0.1179267057171887</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02861117594909193</v>
+        <v>0.03144518449576775</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>858167475.0123348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1516435782.664811</v>
+        <v>1819480425.071372</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1366267559676207</v>
+        <v>0.1488547692677684</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05903742116104192</v>
+        <v>0.03676964427721267</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>758217853.3797051</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2144404367.89225</v>
+        <v>2536787611.460428</v>
       </c>
       <c r="F41" t="n">
-        <v>0.139161686265194</v>
+        <v>0.1152614391668887</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03707882861944433</v>
+        <v>0.03688679616954198</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1072202244.059592</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2717146199.937604</v>
+        <v>3470975331.908669</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1115966569317639</v>
+        <v>0.08753583828790339</v>
       </c>
       <c r="G42" t="n">
-        <v>0.044278026672179</v>
+        <v>0.04627269145304186</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>75</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1358573040.940561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2868663612.013686</v>
+        <v>2955208974.508875</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1568270617153399</v>
+        <v>0.1290930909606671</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0215561262881312</v>
+        <v>0.02084134009295475</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>72</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1434331817.563929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1473048989.02181</v>
+        <v>1758956338.939051</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08313158131460958</v>
+        <v>0.07625447142696627</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03604090662534198</v>
+        <v>0.03086326426382017</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>736524495.6911004</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1660322230.923631</v>
+        <v>1582134280.646086</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1611938022182552</v>
+        <v>0.1567069337314916</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05505402256318436</v>
+        <v>0.03494532549450131</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>830161072.058679</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5734058392.351271</v>
+        <v>5300472769.407778</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1636323690495168</v>
+        <v>0.1459647104721065</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05619649072655368</v>
+        <v>0.05342602678239557</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>76</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2867029265.004943</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3188994963.391961</v>
+        <v>3266397656.116529</v>
       </c>
       <c r="F47" t="n">
-        <v>0.176271861508141</v>
+        <v>0.2034109720541644</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04050628356575038</v>
+        <v>0.0519877955410177</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>57</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1594497434.869604</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3771212088.217489</v>
+        <v>4097639030.04929</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08132831260074118</v>
+        <v>0.08734028481368193</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03050489844458308</v>
+        <v>0.02810087143798759</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1885606091.75953</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1533124059.536854</v>
+        <v>1590313014.488234</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1736561170110462</v>
+        <v>0.1568054044956838</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03089211050914978</v>
+        <v>0.04374043822628053</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>766562056.6286795</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2704206631.931368</v>
+        <v>2728788436.078299</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1325908246946482</v>
+        <v>0.1678350611555512</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04255224429244077</v>
+        <v>0.04325192786590287</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>73</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1352103396.815038</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1249288699.789191</v>
+        <v>1451978751.409273</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1322279549977566</v>
+        <v>0.1768862417779763</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04219826439662653</v>
+        <v>0.05212549959258664</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>624644393.4516889</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4300629420.668158</v>
+        <v>4538980133.365246</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1350727603224824</v>
+        <v>0.1290021094619191</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05682824465245444</v>
+        <v>0.0575809997839009</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>88</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2150314749.100915</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3476226429.465582</v>
+        <v>2670572082.102073</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1710844858965291</v>
+        <v>0.1802827492827682</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03541269549308151</v>
+        <v>0.02229077143282649</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>61</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1738113214.291813</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3277618695.315174</v>
+        <v>4581324999.707292</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1175421286145021</v>
+        <v>0.1141100577513354</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04104466435801122</v>
+        <v>0.04262806475719019</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>71</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1638809354.968427</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3833774040.287924</v>
+        <v>4899168274.386026</v>
       </c>
       <c r="F55" t="n">
-        <v>0.191820175648534</v>
+        <v>0.1575369410501045</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03174139709633653</v>
+        <v>0.02715150595819349</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1916886987.724998</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1337127595.252171</v>
+        <v>1382674991.674713</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1587696706640735</v>
+        <v>0.135421331551575</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04812592267502825</v>
+        <v>0.04965382987472977</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>668563864.0178663</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3976276885.547906</v>
+        <v>4445154066.668475</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1818361045422958</v>
+        <v>0.1280136399563827</v>
       </c>
       <c r="G57" t="n">
-        <v>0.025498697743754</v>
+        <v>0.01699107303765446</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>68</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1988138529.134567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1792209129.770775</v>
+        <v>1597164949.062955</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1925084818169963</v>
+        <v>0.1404159378122226</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03967228253932475</v>
+        <v>0.0392612190284355</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>896104569.3330632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5073161293.025524</v>
+        <v>4827694442.876526</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08065307488894501</v>
+        <v>0.1100870687032897</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04086791408787705</v>
+        <v>0.03151889817072201</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>59</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2536580570.664523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3608008718.586562</v>
+        <v>2552179044.1397</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1374572264905972</v>
+        <v>0.1568195194840892</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0313843296038837</v>
+        <v>0.02216066238333745</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>70</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1804004493.404323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2352308897.293675</v>
+        <v>2332127671.481514</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1378344304498641</v>
+        <v>0.1668628445155735</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03085175226826514</v>
+        <v>0.02313190621472066</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1176154490.176184</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1874161398.192014</v>
+        <v>1845855359.924462</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1894603858086784</v>
+        <v>0.1207421262358932</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03725006565876807</v>
+        <v>0.03843301454979129</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>937080738.2941922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5034221398.077649</v>
+        <v>3888905771.692718</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1003758264861073</v>
+        <v>0.1074736498923506</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03706761103192426</v>
+        <v>0.03968702826994</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>61</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2517110715.245379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3937367512.26833</v>
+        <v>4512388170.43544</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1327920033024663</v>
+        <v>0.1788150286664826</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02477448331289396</v>
+        <v>0.02662002047849239</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>66</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1968683787.574568</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5240684402.580794</v>
+        <v>3970348782.74427</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1261989523879465</v>
+        <v>0.1707135831422587</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02720015070398166</v>
+        <v>0.01942609590616882</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>77</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2620342145.827239</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4398942130.613873</v>
+        <v>4772553889.780922</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1565011261855822</v>
+        <v>0.1618410377398359</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03540710263975931</v>
+        <v>0.05029498798230825</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>62</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2199471060.280492</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3061168642.746582</v>
+        <v>2813987078.08639</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09941596603160266</v>
+        <v>0.06340727326902641</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04824652655917275</v>
+        <v>0.04720093291099656</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>69</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1530584334.466438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5162089364.973657</v>
+        <v>3869246834.720401</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1481671474835124</v>
+        <v>0.09801319174600956</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03142121217417035</v>
+        <v>0.03526797255757859</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2581044748.687484</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2302746177.600287</v>
+        <v>2159189292.170777</v>
       </c>
       <c r="F69" t="n">
-        <v>0.117704943040661</v>
+        <v>0.1234405320303487</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04271155184300253</v>
+        <v>0.03865448867208688</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1151373132.913731</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3229898441.029424</v>
+        <v>2480586585.817028</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06520337118550376</v>
+        <v>0.07775914541358678</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03243042404835308</v>
+        <v>0.03734332311080908</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>61</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1614949212.412778</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4981653190.26049</v>
+        <v>4348030624.001161</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1811203240162135</v>
+        <v>0.165712991416706</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02868727521612578</v>
+        <v>0.02807044539848855</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>78</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2490826699.452351</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1375311910.225803</v>
+        <v>1997039252.894574</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08936188295284034</v>
+        <v>0.07040756496695899</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04743395903434724</v>
+        <v>0.03770208294811414</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>687656002.2142602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2481648656.18615</v>
+        <v>3047389753.465733</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0914450100550467</v>
+        <v>0.1028315371875188</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03938705850082832</v>
+        <v>0.03593039238089187</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>81</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1240824371.509937</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3872714174.436751</v>
+        <v>3269751447.353279</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1703106647719732</v>
+        <v>0.1423204949590758</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03101279814628788</v>
+        <v>0.02658200413800632</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>73</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1936357077.118443</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1994139309.401449</v>
+        <v>1682403726.526983</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1565436453616968</v>
+        <v>0.1553064558818683</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03348965973717202</v>
+        <v>0.02368601992401212</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>997069619.4789571</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4586579867.975497</v>
+        <v>4761100388.193595</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1105833591146154</v>
+        <v>0.09002475818919807</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03064599743880024</v>
+        <v>0.02947544151298335</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2293289943.310173</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1758072279.021327</v>
+        <v>1558406748.556518</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1660192924956707</v>
+        <v>0.1866475041096446</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03094741894704827</v>
+        <v>0.02792751297453109</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>879036165.3237612</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3290048883.728472</v>
+        <v>4026647014.968416</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1297467549540049</v>
+        <v>0.1066079786583916</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04333123166214201</v>
+        <v>0.05402740785241281</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>74</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1645024458.39357</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1222093840.449085</v>
+        <v>1911221266.97514</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1536717919897672</v>
+        <v>0.1093842894832473</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03922945707016243</v>
+        <v>0.0326894396655091</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>611046905.8313215</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4473004625.597659</v>
+        <v>4005568533.623359</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08590006138877823</v>
+        <v>0.08413253385796281</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02692987764838336</v>
+        <v>0.03579190604651162</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>45</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2236502335.771926</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3898028776.638159</v>
+        <v>3210703055.324031</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09976861631538538</v>
+        <v>0.1243742128430555</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02419331791555786</v>
+        <v>0.02081030471231925</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1949014347.73596</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3551524752.995876</v>
+        <v>3582762780.716417</v>
       </c>
       <c r="F82" t="n">
-        <v>0.148087289512792</v>
+        <v>0.1996441912371034</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02931443301901031</v>
+        <v>0.02217752003245414</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1775762441.28472</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1656665754.720346</v>
+        <v>2444815220.478809</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1178700287915574</v>
+        <v>0.1488797823407682</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04272183636364588</v>
+        <v>0.03229617301104446</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>828332819.9536536</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1955821858.78953</v>
+        <v>1708528371.208888</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1052129462859047</v>
+        <v>0.1062920767316724</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04748910178302884</v>
+        <v>0.05099771463309089</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>977910940.843424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2303282667.133241</v>
+        <v>3357468786.472187</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1237042642982264</v>
+        <v>0.1412015228610946</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03626970918462827</v>
+        <v>0.05503979941975115</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>81</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1151641316.77314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1721376812.084955</v>
+        <v>2536167531.889258</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1355440203535042</v>
+        <v>0.1163954649933232</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02012103666627126</v>
+        <v>0.02546812615601278</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>860688394.9045928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1204275742.289663</v>
+        <v>1448832120.000258</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1337093911233311</v>
+        <v>0.1522521156664768</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03935000927442414</v>
+        <v>0.03557574107871558</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>602137927.8123846</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3465657355.681861</v>
+        <v>3270608007.491732</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1622256758157939</v>
+        <v>0.1591547760159966</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02996371827362447</v>
+        <v>0.03102072809544511</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>84</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1732828754.28495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3087804963.368637</v>
+        <v>2484469598.900065</v>
       </c>
       <c r="F89" t="n">
-        <v>0.108563162917454</v>
+        <v>0.1405598635208091</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0272021275301889</v>
+        <v>0.02785645397075165</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1543902513.355273</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2055379035.882668</v>
+        <v>1867048878.002942</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1288807076128392</v>
+        <v>0.09985790241740149</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03399136541813762</v>
+        <v>0.04615163486288699</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1027689598.292348</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1311502716.169015</v>
+        <v>1618287860.457334</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1910389002999094</v>
+        <v>0.1317742544529702</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05388914383303123</v>
+        <v>0.05461567378584888</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>655751422.1041863</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2594579135.228858</v>
+        <v>2221697907.8616</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08464351706470434</v>
+        <v>0.1001526799888568</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04215451327341955</v>
+        <v>0.0311350775941947</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>55</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1297289558.73522</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3050747472.170122</v>
+        <v>3839867094.749514</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09857200589043195</v>
+        <v>0.141670031116532</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04584763459963428</v>
+        <v>0.03427473224540508</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>64</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1525373798.061416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2048626289.085062</v>
+        <v>2054040371.439307</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1071975301634398</v>
+        <v>0.1221398113505416</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03800457672549589</v>
+        <v>0.04288364087256993</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1024313149.258648</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2671730701.162702</v>
+        <v>2945015809.744209</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09616066813930914</v>
+        <v>0.1187387317483179</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04541460243874314</v>
+        <v>0.04728893180139222</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>52</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1335865374.172519</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1663694733.925488</v>
+        <v>1670658670.322588</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1366689695136427</v>
+        <v>0.08571430025231791</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03047814420257072</v>
+        <v>0.03044177457000035</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>831847389.8276496</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5163891916.643381</v>
+        <v>3826883886.706593</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1269314907122653</v>
+        <v>0.1540913553962215</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0260178247878601</v>
+        <v>0.02160668525632402</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2581946108.281433</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3903499655.81732</v>
+        <v>2896899744.021894</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09238916402702815</v>
+        <v>0.0922527961441512</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03204421689497292</v>
+        <v>0.03050151989197982</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>56</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1951749873.852163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2804590986.326413</v>
+        <v>2762238715.833947</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1326235143231151</v>
+        <v>0.1100814498591019</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03242390662477643</v>
+        <v>0.03025261965636983</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>67</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1402295464.918095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4296701264.183329</v>
+        <v>4000298824.072323</v>
       </c>
       <c r="F100" t="n">
-        <v>0.145366099861653</v>
+        <v>0.1092442542550618</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02660317014238383</v>
+        <v>0.02452127770746695</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2148350726.435905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2733262386.335457</v>
+        <v>3502897139.055298</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1800043791767775</v>
+        <v>0.2133012412557993</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03593352566344184</v>
+        <v>0.05373202912229236</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>87</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1366631246.999611</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_214.xlsx
+++ b/output/fit_clients/fit_round_214.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1780071969.129548</v>
+        <v>2066406142.281131</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07209665571124785</v>
+        <v>0.07651975411326817</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04500111742231462</v>
+        <v>0.0396501910402912</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2145760106.286726</v>
+        <v>1740221952.640552</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1515973862456009</v>
+        <v>0.1603727607170651</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03138582620934564</v>
+        <v>0.04287928762132281</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4799191993.586407</v>
+        <v>4032569158.630373</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1597007303431163</v>
+        <v>0.1256104110854932</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03268848959032519</v>
+        <v>0.03064798160901417</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4084775214.581037</v>
+        <v>3499254051.036853</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07816207423629683</v>
+        <v>0.110151981205561</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05065380831636521</v>
+        <v>0.03416859182155679</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2573273395.833693</v>
+        <v>2601761067.844154</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1360399062326245</v>
+        <v>0.1205531831890092</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04434553748123802</v>
+        <v>0.04908493646785047</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2088493144.052284</v>
+        <v>2860116895.868959</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1012257635019783</v>
+        <v>0.09142376950837162</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03368386940248211</v>
+        <v>0.0300859426753524</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3791881904.345274</v>
+        <v>2767878013.427281</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1731806650191096</v>
+        <v>0.1976959366888941</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03068632634937001</v>
+        <v>0.02350676720738202</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1740283090.103367</v>
+        <v>1514672425.55668</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1444159117186444</v>
+        <v>0.1647649481734101</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03002047543795813</v>
+        <v>0.02603763070336677</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4994843023.48493</v>
+        <v>4766175448.799931</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2039539686636724</v>
+        <v>0.1475157420590262</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03527010442127111</v>
+        <v>0.03589420116466885</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3310019312.796958</v>
+        <v>4129453903.538308</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1542300018468067</v>
+        <v>0.1714607449036258</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03449229543598493</v>
+        <v>0.03137673077536188</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2818911802.598333</v>
+        <v>2710521860.221084</v>
       </c>
       <c r="F12" t="n">
-        <v>0.142250667230841</v>
+        <v>0.1967952940367994</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04039514447257811</v>
+        <v>0.05281577474159462</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3359679549.870502</v>
+        <v>4943305057.186232</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09662873467438751</v>
+        <v>0.07319132096628775</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02139141540751965</v>
+        <v>0.03048920737374045</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3654277551.198286</v>
+        <v>3113427685.367034</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1259152383374491</v>
+        <v>0.1474601306404452</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02779301609675609</v>
+        <v>0.03368943960587674</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1748470953.639593</v>
+        <v>1682613726.320886</v>
       </c>
       <c r="F15" t="n">
-        <v>0.106685073384057</v>
+        <v>0.07366683626852517</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03950232178341954</v>
+        <v>0.03120446087941261</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2406196048.032916</v>
+        <v>1871215556.847948</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1084102476430314</v>
+        <v>0.09899762157546246</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04915572396184909</v>
+        <v>0.04519275895995307</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3233972218.34854</v>
+        <v>4186458858.35982</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1355210025499225</v>
+        <v>0.1514386688708574</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04677673445739661</v>
+        <v>0.04108742137747246</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3817357742.412929</v>
+        <v>2464812296.869452</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1707483928551148</v>
+        <v>0.1406007091130029</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02299625004278626</v>
+        <v>0.03456383593309441</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1280540193.748145</v>
+        <v>1047878693.499031</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1576651619074829</v>
+        <v>0.1406530172421049</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01917092505375523</v>
+        <v>0.02720068426007938</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2549305597.111724</v>
+        <v>2436505795.735803</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1352009264171533</v>
+        <v>0.1288336418078501</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02746776210159884</v>
+        <v>0.01975710452599012</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2058116056.145098</v>
+        <v>2254481316.621325</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08898781510131601</v>
+        <v>0.09901155152967629</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0403985283269428</v>
+        <v>0.04555265830824667</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2450837414.969742</v>
+        <v>3986367303.715439</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1234143322058948</v>
+        <v>0.1108659520849624</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04369557295758374</v>
+        <v>0.0452661909246489</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1539984184.244246</v>
+        <v>1451071653.838722</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1471360649055685</v>
+        <v>0.1231199996052798</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04757042839444566</v>
+        <v>0.04531925218949275</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2797581604.479739</v>
+        <v>3288959091.761072</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1462813175669536</v>
+        <v>0.1421323398413739</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03734670626100341</v>
+        <v>0.02298998025115764</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1323710107.342816</v>
+        <v>969330716.0532211</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09154081770451494</v>
+        <v>0.07865213753942189</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02766515953942821</v>
+        <v>0.02229658610461319</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>929574021.5934323</v>
+        <v>1123971667.745219</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07949512435718793</v>
+        <v>0.1100873204409929</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02865724581308328</v>
+        <v>0.03817303192615455</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3677260157.922778</v>
+        <v>4681211242.528869</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09654808191162434</v>
+        <v>0.1581021840045765</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01840934578619028</v>
+        <v>0.02579653048883862</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2443361351.600802</v>
+        <v>3830509337.076984</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0958673544571422</v>
+        <v>0.09625826792223752</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04165104443544867</v>
+        <v>0.03351853202311607</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5339283354.259335</v>
+        <v>3871930309.68455</v>
       </c>
       <c r="F29" t="n">
-        <v>0.112443774863017</v>
+        <v>0.1279646955222886</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03039495017927118</v>
+        <v>0.03533487940843948</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2300855737.06979</v>
+        <v>1856009706.955983</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1243832019796258</v>
+        <v>0.09024890755822296</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02863262579395017</v>
+        <v>0.02449115633766153</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1252349681.771228</v>
+        <v>1345908310.777037</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07989572948518021</v>
+        <v>0.09306164461995142</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04067612062495234</v>
+        <v>0.04570045671539449</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1585489923.254693</v>
+        <v>1363163916.883064</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07565474574491775</v>
+        <v>0.09918593450682907</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03083137358156169</v>
+        <v>0.03719661157616495</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1977608726.959361</v>
+        <v>2701465743.788768</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1974303223517393</v>
+        <v>0.2048430096219603</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05013748387851246</v>
+        <v>0.05284467691258871</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1215309838.022227</v>
+        <v>1036095474.477653</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1131611303577252</v>
+        <v>0.09920064390861251</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01787148418978883</v>
+        <v>0.01971157276700666</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1209305535.996168</v>
+        <v>886670943.3012048</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08106643587962345</v>
+        <v>0.08549104044124396</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0368820380187734</v>
+        <v>0.03777950342182527</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2326594921.588426</v>
+        <v>2357020263.370727</v>
       </c>
       <c r="F36" t="n">
-        <v>0.11721980087</v>
+        <v>0.1289118951770445</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02611272920342207</v>
+        <v>0.01861019911718318</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2932861044.944705</v>
+        <v>1785156873.901514</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1103785833893506</v>
+        <v>0.1080199355577698</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03142990924006248</v>
+        <v>0.03393937024760948</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1448734743.826662</v>
+        <v>2164412555.956767</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1195757454639773</v>
+        <v>0.1111983264510177</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03536387553713454</v>
+        <v>0.02831006264120896</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1675717994.807793</v>
+        <v>1576845056.975328</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1179267057171887</v>
+        <v>0.1871462925802013</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03144518449576775</v>
+        <v>0.03231323016894445</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1819480425.071372</v>
+        <v>1483598395.866714</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1488547692677684</v>
+        <v>0.1231688773410674</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03676964427721267</v>
+        <v>0.04664108595652516</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2536787611.460428</v>
+        <v>1780541311.64857</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1152614391668887</v>
+        <v>0.1657576729846706</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03688679616954198</v>
+        <v>0.03473206228751048</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3470975331.908669</v>
+        <v>4063417077.902948</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08753583828790339</v>
+        <v>0.1020745201188927</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04627269145304186</v>
+        <v>0.04553397126911324</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2955208974.508875</v>
+        <v>2889741850.907947</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1290930909606671</v>
+        <v>0.1909402795865892</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02084134009295475</v>
+        <v>0.01937869061162504</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1758956338.939051</v>
+        <v>1781263482.936075</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07625447142696627</v>
+        <v>0.07065692763478011</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03086326426382017</v>
+        <v>0.03444280371204903</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1582134280.646086</v>
+        <v>1937964015.063171</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1567069337314916</v>
+        <v>0.1285315098594456</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03494532549450131</v>
+        <v>0.04073628217399645</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5300472769.407778</v>
+        <v>4723015198.322142</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1459647104721065</v>
+        <v>0.1194045859440318</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05342602678239557</v>
+        <v>0.05797901562035133</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3266397656.116529</v>
+        <v>4600778854.282438</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2034109720541644</v>
+        <v>0.1719259677371961</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0519877955410177</v>
+        <v>0.05128375290843699</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4097639030.04929</v>
+        <v>3619433452.379383</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08734028481368193</v>
+        <v>0.08629265364479946</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02810087143798759</v>
+        <v>0.026246707162535</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1590313014.488234</v>
+        <v>1753612747.009335</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1568054044956838</v>
+        <v>0.1181132282862443</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04374043822628053</v>
+        <v>0.03816911467548655</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2728788436.078299</v>
+        <v>2852423725.500791</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1678350611555512</v>
+        <v>0.1411193561653565</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04325192786590287</v>
+        <v>0.04023788805337795</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1451978751.409273</v>
+        <v>1078699978.115136</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1768862417779763</v>
+        <v>0.1317969145904341</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05212549959258664</v>
+        <v>0.04493264076171792</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4538980133.365246</v>
+        <v>3213735735.940126</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1290021094619191</v>
+        <v>0.1189784137533215</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0575809997839009</v>
+        <v>0.05927819178292847</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2670572082.102073</v>
+        <v>2518761923.025601</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1802827492827682</v>
+        <v>0.1264211598840917</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02229077143282649</v>
+        <v>0.03534183267345244</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4581324999.707292</v>
+        <v>4288679508.937727</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1141100577513354</v>
+        <v>0.1596412693882543</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04262806475719019</v>
+        <v>0.05069811146216901</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4899168274.386026</v>
+        <v>3414590140.27541</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1575369410501045</v>
+        <v>0.144707551963064</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02715150595819349</v>
+        <v>0.02286256657538734</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1382674991.674713</v>
+        <v>1575385849.093562</v>
       </c>
       <c r="F56" t="n">
-        <v>0.135421331551575</v>
+        <v>0.1116736621057601</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04965382987472977</v>
+        <v>0.0468768446381623</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4445154066.668475</v>
+        <v>4167246379.608542</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1280136399563827</v>
+        <v>0.1817293444732387</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01699107303765446</v>
+        <v>0.02208055528414619</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1597164949.062955</v>
+        <v>1775306626.34635</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1404159378122226</v>
+        <v>0.1565443750582153</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0392612190284355</v>
+        <v>0.02760985637327608</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4827694442.876526</v>
+        <v>4414288534.510046</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1100870687032897</v>
+        <v>0.1051741497038085</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03151889817072201</v>
+        <v>0.04831565482379024</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2552179044.1397</v>
+        <v>3503397400.250924</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1568195194840892</v>
+        <v>0.1966767228864523</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02216066238333745</v>
+        <v>0.02767737845075489</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2332127671.481514</v>
+        <v>2156366706.824714</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1668628445155735</v>
+        <v>0.1359188097358244</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02313190621472066</v>
+        <v>0.02824049992735861</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1845855359.924462</v>
+        <v>1878351560.849922</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1207421262358932</v>
+        <v>0.1464163100484797</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03843301454979129</v>
+        <v>0.04096335508416062</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3888905771.692718</v>
+        <v>3994244632.778945</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1074736498923506</v>
+        <v>0.088201861420693</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03968702826994</v>
+        <v>0.04431390786317763</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4512388170.43544</v>
+        <v>4321476454.554117</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1788150286664826</v>
+        <v>0.1840897245075831</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02662002047849239</v>
+        <v>0.02791985614762166</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3970348782.74427</v>
+        <v>4438918819.915951</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1707135831422587</v>
+        <v>0.1586110430309639</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01942609590616882</v>
+        <v>0.02250370082325325</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4772553889.780922</v>
+        <v>5099241100.920375</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1618410377398359</v>
+        <v>0.1512835092761677</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05029498798230825</v>
+        <v>0.04993276030944387</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2813987078.08639</v>
+        <v>2175469602.918739</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06340727326902641</v>
+        <v>0.06323242169685218</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04720093291099656</v>
+        <v>0.03287931198406959</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3869246834.720401</v>
+        <v>4343947956.741838</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09801319174600956</v>
+        <v>0.1116135267347239</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03526797255757859</v>
+        <v>0.03221499550272967</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2159189292.170777</v>
+        <v>1829833353.761427</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1234405320303487</v>
+        <v>0.1788379231735555</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03865448867208688</v>
+        <v>0.05720288728881338</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2480586585.817028</v>
+        <v>3583980461.766248</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07775914541358678</v>
+        <v>0.09152759819100562</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03734332311080908</v>
+        <v>0.03165826900831886</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4348030624.001161</v>
+        <v>4923453194.08459</v>
       </c>
       <c r="F71" t="n">
-        <v>0.165712991416706</v>
+        <v>0.1407876976932441</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02807044539848855</v>
+        <v>0.02815371890624589</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1997039252.894574</v>
+        <v>1394002585.076359</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07040756496695899</v>
+        <v>0.108675702325167</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03770208294811414</v>
+        <v>0.04555754795874294</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3047389753.465733</v>
+        <v>3280609242.931036</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1028315371875188</v>
+        <v>0.09730057232027342</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03593039238089187</v>
+        <v>0.0415499732045708</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3269751447.353279</v>
+        <v>3498913491.548083</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1423204949590758</v>
+        <v>0.169274050705185</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02658200413800632</v>
+        <v>0.02437094883501985</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1682403726.526983</v>
+        <v>1636020170.945055</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1553064558818683</v>
+        <v>0.1568460299540276</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02368601992401212</v>
+        <v>0.03198503348952581</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4761100388.193595</v>
+        <v>3330861514.798952</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09002475818919807</v>
+        <v>0.07990217756877883</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02947544151298335</v>
+        <v>0.02910795602521173</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1558406748.556518</v>
+        <v>1391662900.873906</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1866475041096446</v>
+        <v>0.1857610390393923</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02792751297453109</v>
+        <v>0.01982992360904517</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4026647014.968416</v>
+        <v>2929308069.85288</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1066079786583916</v>
+        <v>0.08772874896238404</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05402740785241281</v>
+        <v>0.05343226375023576</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1911221266.97514</v>
+        <v>1920965817.379106</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1093842894832473</v>
+        <v>0.1175987095768023</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0326894396655091</v>
+        <v>0.02734139241453668</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4005568533.623359</v>
+        <v>3630758703.104636</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08413253385796281</v>
+        <v>0.0874660217913142</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03579190604651162</v>
+        <v>0.03182995803385628</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3210703055.324031</v>
+        <v>4194126407.26409</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1243742128430555</v>
+        <v>0.1153364907723188</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02081030471231925</v>
+        <v>0.02195071442499377</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3582762780.716417</v>
+        <v>3965165197.261045</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1996441912371034</v>
+        <v>0.2105368576952122</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02217752003245414</v>
+        <v>0.02508595236659782</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2444815220.478809</v>
+        <v>2216716570.828625</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1488797823407682</v>
+        <v>0.1120625927229878</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03229617301104446</v>
+        <v>0.02987196307926946</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1708528371.208888</v>
+        <v>2459732525.725018</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1062920767316724</v>
+        <v>0.09215829958805945</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05099771463309089</v>
+        <v>0.04879151768514301</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3357468786.472187</v>
+        <v>2893221292.266238</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1412015228610946</v>
+        <v>0.1137810698314967</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05503979941975115</v>
+        <v>0.04791668518686252</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2536167531.889258</v>
+        <v>2318397453.202728</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1163954649933232</v>
+        <v>0.1444226751032748</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02546812615601278</v>
+        <v>0.02398752422719788</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1448832120.000258</v>
+        <v>1444424573.394766</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1522521156664768</v>
+        <v>0.1805284952418407</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03557574107871558</v>
+        <v>0.03161806388107791</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3270608007.491732</v>
+        <v>2729634981.001707</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1591547760159966</v>
+        <v>0.1477479781882902</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03102072809544511</v>
+        <v>0.03050798305559987</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2484469598.900065</v>
+        <v>2189753633.213034</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1405598635208091</v>
+        <v>0.1236909343028204</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02785645397075165</v>
+        <v>0.02883767125412157</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1867048878.002942</v>
+        <v>2162265027.161027</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09985790241740149</v>
+        <v>0.1111477720074752</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04615163486288699</v>
+        <v>0.03694084189247594</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1618287860.457334</v>
+        <v>1826764049.454798</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1317742544529702</v>
+        <v>0.1181222597973097</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05461567378584888</v>
+        <v>0.05993165962284818</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2221697907.8616</v>
+        <v>2272228046.375165</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1001526799888568</v>
+        <v>0.06668904956226433</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0311350775941947</v>
+        <v>0.03532411255146638</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3839867094.749514</v>
+        <v>3198633822.491853</v>
       </c>
       <c r="F93" t="n">
-        <v>0.141670031116532</v>
+        <v>0.1343459742154761</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03427473224540508</v>
+        <v>0.05119874264720029</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2054040371.439307</v>
+        <v>1573906432.037107</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1221398113505416</v>
+        <v>0.1098997797485814</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04288364087256993</v>
+        <v>0.04199924233657102</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2945015809.744209</v>
+        <v>3087402326.418308</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1187387317483179</v>
+        <v>0.09313062140026672</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04728893180139222</v>
+        <v>0.05117301795709833</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1670658670.322588</v>
+        <v>2372306198.506307</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08571430025231791</v>
+        <v>0.1243424636516698</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03044177457000035</v>
+        <v>0.03605107610380386</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3826883886.706593</v>
+        <v>5104172115.630672</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1540913553962215</v>
+        <v>0.1504672142825421</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02160668525632402</v>
+        <v>0.02165873928031829</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2896899744.021894</v>
+        <v>3335536980.234909</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0922527961441512</v>
+        <v>0.07943828269391444</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03050151989197982</v>
+        <v>0.02360282245404078</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2762238715.833947</v>
+        <v>2692658338.873847</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1100814498591019</v>
+        <v>0.1371303484166231</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03025261965636983</v>
+        <v>0.03178647028372255</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4000298824.072323</v>
+        <v>4324724556.839444</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1092442542550618</v>
+        <v>0.1266305195962038</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02452127770746695</v>
+        <v>0.02654254731818315</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3502897139.055298</v>
+        <v>3256774355.466555</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2133012412557993</v>
+        <v>0.1459442809807973</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05373202912229236</v>
+        <v>0.04624510792928094</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_214.xlsx
+++ b/output/fit_clients/fit_round_214.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2066406142.281131</v>
+        <v>2226600490.551744</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07651975411326817</v>
+        <v>0.1149735957175291</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0396501910402912</v>
+        <v>0.03147863476475819</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1740221952.640552</v>
+        <v>2558137395.5865</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1603727607170651</v>
+        <v>0.1244983591668411</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04287928762132281</v>
+        <v>0.03135360632424056</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4032569158.630373</v>
+        <v>3194645780.764172</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1256104110854932</v>
+        <v>0.1201238978343148</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03064798160901417</v>
+        <v>0.0346596987645999</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>117</v>
+      </c>
+      <c r="J4" t="n">
+        <v>213</v>
+      </c>
+      <c r="K4" t="n">
+        <v>71.18722284669063</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3499254051.036853</v>
+        <v>3162429570.345491</v>
       </c>
       <c r="F5" t="n">
-        <v>0.110151981205561</v>
+        <v>0.08097953279099786</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03416859182155679</v>
+        <v>0.04094439158455292</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>212</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2601761067.844154</v>
+        <v>2727438388.031453</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1205531831890092</v>
+        <v>0.1253799120802448</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04908493646785047</v>
+        <v>0.04307411198868865</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2860116895.868959</v>
+        <v>2529592710.451737</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09142376950837162</v>
+        <v>0.09553726234036769</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0300859426753524</v>
+        <v>0.03648783306247919</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2767878013.427281</v>
+        <v>3911047752.939382</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1976959366888941</v>
+        <v>0.1865901532298984</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02350676720738202</v>
+        <v>0.02697832960644011</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>60</v>
+      </c>
+      <c r="J8" t="n">
+        <v>214</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1514672425.55668</v>
+        <v>1988520588.037725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1647649481734101</v>
+        <v>0.1765884526514882</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02603763070336677</v>
+        <v>0.02645799155625499</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4766175448.799931</v>
+        <v>4417983785.05878</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1475157420590262</v>
+        <v>0.2132450194919421</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03589420116466885</v>
+        <v>0.03748715360598992</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>195</v>
+      </c>
+      <c r="J10" t="n">
+        <v>214</v>
+      </c>
+      <c r="K10" t="n">
+        <v>124.0780536525409</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4129453903.538308</v>
+        <v>3623449852.770554</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1714607449036258</v>
+        <v>0.1623308639790341</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03137673077536188</v>
+        <v>0.04516273141115067</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>89</v>
+      </c>
+      <c r="J11" t="n">
+        <v>214</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2710521860.221084</v>
+        <v>3096782075.886101</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1967952940367994</v>
+        <v>0.1635894966999555</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05281577474159462</v>
+        <v>0.03802731673445151</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4943305057.186232</v>
+        <v>4727846891.587958</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07319132096628775</v>
+        <v>0.06427604778852923</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03048920737374045</v>
+        <v>0.03019638098741245</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>107</v>
+      </c>
+      <c r="J13" t="n">
+        <v>214</v>
+      </c>
+      <c r="K13" t="n">
+        <v>115.1477741366418</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3113427685.367034</v>
+        <v>2882863060.206451</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1474601306404452</v>
+        <v>0.1558591049439595</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03368943960587674</v>
+        <v>0.02964230159105235</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1682613726.320886</v>
+        <v>1638324162.18946</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07366683626852517</v>
+        <v>0.09603535636182586</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03120446087941261</v>
+        <v>0.03969718534456319</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1871215556.847948</v>
+        <v>2332230169.434302</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09899762157546246</v>
+        <v>0.0753796864155598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04519275895995307</v>
+        <v>0.03172725078879893</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4186458858.35982</v>
+        <v>4660400080.601871</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1514386688708574</v>
+        <v>0.1171080497277814</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04108742137747246</v>
+        <v>0.03291520801013626</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>103</v>
+      </c>
+      <c r="J17" t="n">
+        <v>213</v>
+      </c>
+      <c r="K17" t="n">
+        <v>106.61490626102</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2464812296.869452</v>
+        <v>3037049169.255578</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1406007091130029</v>
+        <v>0.1456186690700803</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03456383593309441</v>
+        <v>0.03092144680720061</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>55</v>
+      </c>
+      <c r="J18" t="n">
+        <v>212</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1047878693.499031</v>
+        <v>856840748.2028537</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1406530172421049</v>
+        <v>0.1894429012590854</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02720068426007938</v>
+        <v>0.01656852701178698</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2436505795.735803</v>
+        <v>2370185575.647746</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1288336418078501</v>
+        <v>0.1400648556229414</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01975710452599012</v>
+        <v>0.02417750442025627</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2254481316.621325</v>
+        <v>2389684122.7464</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09901155152967629</v>
+        <v>0.09172807764485118</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04555265830824667</v>
+        <v>0.04020396276107042</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3986367303.715439</v>
+        <v>3939969064.954683</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1108659520849624</v>
+        <v>0.1134933312252902</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0452661909246489</v>
+        <v>0.03509368678679794</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>213</v>
+      </c>
+      <c r="K22" t="n">
+        <v>101.5381565869065</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1451071653.838722</v>
+        <v>1184864706.586798</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1231199996052798</v>
+        <v>0.1234090353911151</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04531925218949275</v>
+        <v>0.04156192982641763</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3288959091.761072</v>
+        <v>3874214043.916973</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1421323398413739</v>
+        <v>0.111575061550122</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02298998025115764</v>
+        <v>0.02945605350306199</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>67</v>
+      </c>
+      <c r="J24" t="n">
+        <v>213</v>
+      </c>
+      <c r="K24" t="n">
+        <v>98.09597696966965</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>969330716.0532211</v>
+        <v>922831968.8925841</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07865213753942189</v>
+        <v>0.1028959865954829</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02229658610461319</v>
+        <v>0.02965390212247745</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1123971667.745219</v>
+        <v>1444103058.822056</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1100873204409929</v>
+        <v>0.1235705789715604</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03817303192615455</v>
+        <v>0.03593977338781064</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4681211242.528869</v>
+        <v>3572419881.358904</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1581021840045765</v>
+        <v>0.148911409170937</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02579653048883862</v>
+        <v>0.01827400659543535</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>213</v>
+      </c>
+      <c r="K27" t="n">
+        <v>77.89085061885068</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3830509337.076984</v>
+        <v>2519704008.041377</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09625826792223752</v>
+        <v>0.1091232673507209</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03351853202311607</v>
+        <v>0.03407952912597649</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3871930309.68455</v>
+        <v>4017551539.984554</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1279646955222886</v>
+        <v>0.1241513610634566</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03533487940843948</v>
+        <v>0.04365102572836659</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>203</v>
+      </c>
+      <c r="J29" t="n">
+        <v>214</v>
+      </c>
+      <c r="K29" t="n">
+        <v>128.6579855400537</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1856009706.955983</v>
+        <v>2400058866.005149</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09024890755822296</v>
+        <v>0.1153227926205508</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02449115633766153</v>
+        <v>0.02755080469174238</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1345908310.777037</v>
+        <v>1069688173.87498</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09306164461995142</v>
+        <v>0.08653053748923564</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04570045671539449</v>
+        <v>0.05106577592883872</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1363163916.883064</v>
+        <v>1725615340.097946</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09918593450682907</v>
+        <v>0.09910727673643921</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03719661157616495</v>
+        <v>0.03614202456583861</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2701465743.788768</v>
+        <v>2620266526.341809</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2048430096219603</v>
+        <v>0.1493871314705223</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05284467691258871</v>
+        <v>0.04059709895154107</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1036095474.477653</v>
+        <v>1002480594.972801</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09920064390861251</v>
+        <v>0.1189816928407949</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01971157276700666</v>
+        <v>0.02550624996870764</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>886670943.3012048</v>
+        <v>1292061622.851541</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08549104044124396</v>
+        <v>0.08574470296996095</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03777950342182527</v>
+        <v>0.0412322772391502</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2357020263.370727</v>
+        <v>2773488181.570484</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1289118951770445</v>
+        <v>0.1148409414007778</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01861019911718318</v>
+        <v>0.02329262634709816</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1785156873.901514</v>
+        <v>2586840512.086528</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1080199355577698</v>
+        <v>0.06802412385020122</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03393937024760948</v>
+        <v>0.02650981334934978</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2164412555.956767</v>
+        <v>1643866791.090569</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1111983264510177</v>
+        <v>0.1096809845594031</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02831006264120896</v>
+        <v>0.03765104291067787</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1576845056.975328</v>
+        <v>1511755328.209743</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1871462925802013</v>
+        <v>0.1753366182302719</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03231323016894445</v>
+        <v>0.0320604559538619</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1483598395.866714</v>
+        <v>1142371758.191582</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1231688773410674</v>
+        <v>0.1482772870717508</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04664108595652516</v>
+        <v>0.0402641806423957</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1780541311.64857</v>
+        <v>2700966707.284047</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1657576729846706</v>
+        <v>0.1009254117235974</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03473206228751048</v>
+        <v>0.03683120080443752</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4063417077.902948</v>
+        <v>4279475692.638892</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1020745201188927</v>
+        <v>0.1163562309303732</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04553397126911324</v>
+        <v>0.02944590533201855</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>84</v>
+      </c>
+      <c r="J42" t="n">
+        <v>214</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2889741850.907947</v>
+        <v>2942649306.978475</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1909402795865892</v>
+        <v>0.1699198707712876</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01937869061162504</v>
+        <v>0.01592310198190581</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1781263482.936075</v>
+        <v>2224632029.975673</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07065692763478011</v>
+        <v>0.07330282288715204</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03444280371204903</v>
+        <v>0.03695793785853704</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1937964015.063171</v>
+        <v>2037856718.49601</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1285315098594456</v>
+        <v>0.1681661219100949</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04073628217399645</v>
+        <v>0.04716556092977502</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4723015198.322142</v>
+        <v>5486441357.345429</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1194045859440318</v>
+        <v>0.1166189519826868</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05797901562035133</v>
+        <v>0.04090770172753886</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>122</v>
+      </c>
+      <c r="J46" t="n">
+        <v>214</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4600778854.282438</v>
+        <v>4954923872.864661</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1719259677371961</v>
+        <v>0.1524397882186382</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05128375290843699</v>
+        <v>0.03980168507604461</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>96</v>
+      </c>
+      <c r="J47" t="n">
+        <v>213</v>
+      </c>
+      <c r="K47" t="n">
+        <v>93.51766736328874</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3619433452.379383</v>
+        <v>3513830738.25692</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08629265364479946</v>
+        <v>0.0978266085112698</v>
       </c>
       <c r="G48" t="n">
-        <v>0.026246707162535</v>
+        <v>0.0374984734569493</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>105</v>
+      </c>
+      <c r="J48" t="n">
+        <v>214</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1753612747.009335</v>
+        <v>1573485460.969565</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1181132282862443</v>
+        <v>0.1414943600518957</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03816911467548655</v>
+        <v>0.04250395098267871</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2852423725.500791</v>
+        <v>2869420909.115969</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1411193561653565</v>
+        <v>0.1250290664593822</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04023788805337795</v>
+        <v>0.03631878372029949</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>68</v>
+      </c>
+      <c r="J50" t="n">
+        <v>213</v>
+      </c>
+      <c r="K50" t="n">
+        <v>59.80422303336452</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1078699978.115136</v>
+        <v>1238532019.895254</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1317969145904341</v>
+        <v>0.1493661499329508</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04493264076171792</v>
+        <v>0.05440711351901129</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3213735735.940126</v>
+        <v>4569522922.517742</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1189784137533215</v>
+        <v>0.08536742772904281</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05927819178292847</v>
+        <v>0.04528787480982342</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>145</v>
+      </c>
+      <c r="J52" t="n">
+        <v>213</v>
+      </c>
+      <c r="K52" t="n">
+        <v>112.409166071595</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2518761923.025601</v>
+        <v>2743418926.361604</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1264211598840917</v>
+        <v>0.1365386609639028</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03534183267345244</v>
+        <v>0.03144738634915503</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4288679508.937727</v>
+        <v>4170967413.294611</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1596412693882543</v>
+        <v>0.1350482809746499</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05069811146216901</v>
+        <v>0.04765046247354709</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>112</v>
+      </c>
+      <c r="J54" t="n">
+        <v>214</v>
+      </c>
+      <c r="K54" t="n">
+        <v>116.7456989871298</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3414590140.27541</v>
+        <v>3073020176.295176</v>
       </c>
       <c r="F55" t="n">
-        <v>0.144707551963064</v>
+        <v>0.1439664658221758</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02286256657538734</v>
+        <v>0.02841115791580856</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>96</v>
+      </c>
+      <c r="J55" t="n">
+        <v>213</v>
+      </c>
+      <c r="K55" t="n">
+        <v>65.41340190629958</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1575385849.093562</v>
+        <v>1245694725.490264</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1116736621057601</v>
+        <v>0.1454659624822467</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0468768446381623</v>
+        <v>0.05550515316193994</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2452,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4167246379.608542</v>
+        <v>2883881577.56885</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1817293444732387</v>
+        <v>0.1192307689435103</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02208055528414619</v>
+        <v>0.02727019730732304</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>83</v>
+      </c>
+      <c r="J57" t="n">
+        <v>210</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1775306626.34635</v>
+        <v>1672532604.557057</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1565443750582153</v>
+        <v>0.1946524051460871</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02760985637327608</v>
+        <v>0.03316816369386434</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4414288534.510046</v>
+        <v>4154351046.75796</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1051741497038085</v>
+        <v>0.1026205675486569</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04831565482379024</v>
+        <v>0.03481247619549472</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>103</v>
+      </c>
+      <c r="J59" t="n">
+        <v>214</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3503397400.250924</v>
+        <v>2490646809.481432</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1966767228864523</v>
+        <v>0.1612576194827089</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02767737845075489</v>
+        <v>0.02634956996287659</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" t="n">
+        <v>210</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2156366706.824714</v>
+        <v>2443478448.923647</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1359188097358244</v>
+        <v>0.1764456414374211</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02824049992735861</v>
+        <v>0.02796990775820069</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1878351560.849922</v>
+        <v>1279016613.868837</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1464163100484797</v>
+        <v>0.1837053647104329</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04096335508416062</v>
+        <v>0.03284771623790578</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3994244632.778945</v>
+        <v>3484235284.139607</v>
       </c>
       <c r="F63" t="n">
-        <v>0.088201861420693</v>
+        <v>0.07644505791851516</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04431390786317763</v>
+        <v>0.03910409057682861</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>104</v>
+      </c>
+      <c r="J63" t="n">
+        <v>214</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4321476454.554117</v>
+        <v>3863523831.933208</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1840897245075831</v>
+        <v>0.1860682611936308</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02791985614762166</v>
+        <v>0.0216332611244021</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>105</v>
+      </c>
+      <c r="J64" t="n">
+        <v>214</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2732,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4438918819.915951</v>
+        <v>5877710061.512306</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1586110430309639</v>
+        <v>0.1707735670300916</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02250370082325325</v>
+        <v>0.03024240809563871</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>171</v>
+      </c>
+      <c r="J65" t="n">
+        <v>214</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5099241100.920375</v>
+        <v>5192754734.952592</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1512835092761677</v>
+        <v>0.121449949366301</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04993276030944387</v>
+        <v>0.03817026434313713</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>105</v>
+      </c>
+      <c r="J66" t="n">
+        <v>214</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2175469602.918739</v>
+        <v>3142829934.621918</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06323242169685218</v>
+        <v>0.06768528101668073</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03287931198406959</v>
+        <v>0.03280965479161277</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4343947956.741838</v>
+        <v>4395275755.955235</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1116135267347239</v>
+        <v>0.1183620984528853</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03221499550272967</v>
+        <v>0.04220014290142474</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>108</v>
+      </c>
+      <c r="J68" t="n">
+        <v>213</v>
+      </c>
+      <c r="K68" t="n">
+        <v>112.5329765903941</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1829833353.761427</v>
+        <v>2406321856.089784</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1788379231735555</v>
+        <v>0.1416625865462743</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05720288728881338</v>
+        <v>0.0583382902047019</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3583980461.766248</v>
+        <v>2680083915.564582</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09152759819100562</v>
+        <v>0.07603239166153529</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03165826900831886</v>
+        <v>0.03593154508906056</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4923453194.08459</v>
+        <v>3866572514.65409</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1407876976932441</v>
+        <v>0.1759909519400241</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02815371890624589</v>
+        <v>0.03217414572161838</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>163</v>
+      </c>
+      <c r="J71" t="n">
+        <v>214</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1394002585.076359</v>
+        <v>1459378318.419675</v>
       </c>
       <c r="F72" t="n">
-        <v>0.108675702325167</v>
+        <v>0.1087413100466459</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04555754795874294</v>
+        <v>0.04771372338376251</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3280609242.931036</v>
+        <v>2880543284.876817</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09730057232027342</v>
+        <v>0.09710708522014012</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0415499732045708</v>
+        <v>0.03220505353989614</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3498913491.548083</v>
+        <v>2580868808.241575</v>
       </c>
       <c r="F74" t="n">
-        <v>0.169274050705185</v>
+        <v>0.1668506589703272</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02437094883501985</v>
+        <v>0.03328094504360253</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>62</v>
+      </c>
+      <c r="J74" t="n">
+        <v>208</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1636020170.945055</v>
+        <v>1596396529.73587</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1568460299540276</v>
+        <v>0.1018796977409365</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03198503348952581</v>
+        <v>0.02405428337088943</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3330861514.798952</v>
+        <v>4159341936.878598</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07990217756877883</v>
+        <v>0.1056706042805354</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02910795602521173</v>
+        <v>0.03044389640891634</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>98</v>
+      </c>
+      <c r="J76" t="n">
+        <v>214</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1391662900.873906</v>
+        <v>1995893433.891211</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1857610390393923</v>
+        <v>0.1397418514878134</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01982992360904517</v>
+        <v>0.02948913311432431</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3189,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2929308069.85288</v>
+        <v>3483698442.342123</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08772874896238404</v>
+        <v>0.09794327814612994</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05343226375023576</v>
+        <v>0.05123303984632845</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>107</v>
+      </c>
+      <c r="J78" t="n">
+        <v>213</v>
+      </c>
+      <c r="K78" t="n">
+        <v>87.34590262675248</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1920965817.379106</v>
+        <v>1194256918.022846</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1175987095768023</v>
+        <v>0.1172466556939623</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02734139241453668</v>
+        <v>0.03268872272367663</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3630758703.104636</v>
+        <v>3826932701.166216</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0874660217913142</v>
+        <v>0.0968187526596014</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03182995803385628</v>
+        <v>0.03589216756677352</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>104</v>
+      </c>
+      <c r="J80" t="n">
+        <v>213</v>
+      </c>
+      <c r="K80" t="n">
+        <v>77.87789891231344</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4194126407.26409</v>
+        <v>4637032820.17978</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1153364907723188</v>
+        <v>0.09694413411383468</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02195071442499377</v>
+        <v>0.02654538568741382</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>98</v>
+      </c>
+      <c r="J81" t="n">
+        <v>214</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3965165197.261045</v>
+        <v>3877554367.644779</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2105368576952122</v>
+        <v>0.1483246749260604</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02508595236659782</v>
+        <v>0.02312461440824375</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>159</v>
+      </c>
+      <c r="J82" t="n">
+        <v>213</v>
+      </c>
+      <c r="K82" t="n">
+        <v>113.4604193701254</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2216716570.828625</v>
+        <v>1666671400.452034</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1120625927229878</v>
+        <v>0.0982411053214868</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02987196307926946</v>
+        <v>0.0360498762281252</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2459732525.725018</v>
+        <v>2462953518.137726</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09215829958805945</v>
+        <v>0.1083552077162423</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04879151768514301</v>
+        <v>0.04507920587958652</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2893221292.266238</v>
+        <v>2296457300.871742</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1137810698314967</v>
+        <v>0.1448959360061196</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04791668518686252</v>
+        <v>0.04479744410473252</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2318397453.202728</v>
+        <v>2646026202.247081</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1444226751032748</v>
+        <v>0.1198767046920605</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02398752422719788</v>
+        <v>0.01961316355242985</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1444424573.394766</v>
+        <v>1272012833.497894</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1805284952418407</v>
+        <v>0.1345809434098772</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03161806388107791</v>
+        <v>0.04419970850389613</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2729634981.001707</v>
+        <v>3664866373.239692</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1477479781882902</v>
+        <v>0.1511816835791196</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03050798305559987</v>
+        <v>0.03023509736459805</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>30</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2189753633.213034</v>
+        <v>3402307011.13639</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1236909343028204</v>
+        <v>0.1511744742546464</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02883767125412157</v>
+        <v>0.03632473354741087</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>214</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2162265027.161027</v>
+        <v>1997797270.827336</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1111477720074752</v>
+        <v>0.1008967088767604</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03694084189247594</v>
+        <v>0.04642229880988419</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1826764049.454798</v>
+        <v>1424449625.201469</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1181222597973097</v>
+        <v>0.1352908515956338</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05993165962284818</v>
+        <v>0.0517259153005472</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2272228046.375165</v>
+        <v>2575037851.207162</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06668904956226433</v>
+        <v>0.06921762388309281</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03532411255146638</v>
+        <v>0.04338207551735124</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3198633822.491853</v>
+        <v>4287049038.577393</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1343459742154761</v>
+        <v>0.1112359581477432</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05119874264720029</v>
+        <v>0.04320860498913085</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>96</v>
+      </c>
+      <c r="J93" t="n">
+        <v>213</v>
+      </c>
+      <c r="K93" t="n">
+        <v>110.3161532090544</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1573906432.037107</v>
+        <v>2387526074.766438</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1098997797485814</v>
+        <v>0.1649836043303296</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04199924233657102</v>
+        <v>0.03445390370789701</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3087402326.418308</v>
+        <v>2907367375.020755</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09313062140026672</v>
+        <v>0.09695606458190607</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05117301795709833</v>
+        <v>0.04187357753855298</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2372306198.506307</v>
+        <v>1964640672.509644</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1243424636516698</v>
+        <v>0.1211528317524389</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03605107610380386</v>
+        <v>0.04680454125610471</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5104172115.630672</v>
+        <v>5365910072.017057</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1504672142825421</v>
+        <v>0.1143194349125272</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02165873928031829</v>
+        <v>0.02222604851186077</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>103</v>
+      </c>
+      <c r="J97" t="n">
+        <v>214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>114.3749113267093</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3335536980.234909</v>
+        <v>2763302279.609316</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07943828269391444</v>
+        <v>0.1131285444558069</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02360282245404078</v>
+        <v>0.02192120521733533</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2692658338.873847</v>
+        <v>2346776396.557305</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1371303484166231</v>
+        <v>0.09102961605150026</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03178647028372255</v>
+        <v>0.03453287381454894</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4324724556.839444</v>
+        <v>4777120147.246283</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1266305195962038</v>
+        <v>0.168512147744074</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02654254731818315</v>
+        <v>0.01959866018727766</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>89</v>
+      </c>
+      <c r="J100" t="n">
+        <v>213</v>
+      </c>
+      <c r="K100" t="n">
+        <v>112.1251340023278</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3256774355.466555</v>
+        <v>2241107475.569321</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1459442809807973</v>
+        <v>0.1629565307183805</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04624510792928094</v>
+        <v>0.05371796906916718</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
